--- a/Chonqqing Power Grid/data-files/2015年协议库存用量统计.xlsx
+++ b/Chonqqing Power Grid/data-files/2015年协议库存用量统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="12516" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="12516" windowHeight="9372" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="使用金额" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="79">
   <si>
     <t>电能表</t>
   </si>
@@ -254,10 +254,6 @@
   </si>
   <si>
     <t>(空白)</t>
-  </si>
-  <si>
-    <t>铅封</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>运维及成本</t>
@@ -318,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -326,15 +322,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -623,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P64"/>
+  <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:XFD64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -686,7 +673,7 @@
         <v>65</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>77</v>
@@ -723,41 +710,41 @@
         <v>2691829.0799999963</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6">
         <v>308229.48</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="6">
         <v>451036.16999999993</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="6">
         <v>47005.919999999998</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="9">
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="6">
         <v>29998.800000000003</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="6">
         <v>29998.799999999999</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="8">
         <v>36685.35</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="6">
         <v>524380.31000000017</v>
       </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9">
+      <c r="M3" s="6"/>
+      <c r="N3" s="6">
         <v>77996.88</v>
       </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9">
+      <c r="O3" s="6"/>
+      <c r="P3" s="6">
         <v>788369.75000000012</v>
       </c>
     </row>
@@ -2907,17 +2894,6 @@
         <v>747987521.59000087</v>
       </c>
     </row>
-    <row r="64" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B64" s="6">
-        <v>484.8479999999999</v>
-      </c>
-      <c r="N64" s="6">
-        <v>5470.3349999999991</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2926,10 +2902,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N64"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:XFD64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3014,37 +2990,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6">
         <v>148</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="6">
         <v>192</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="6">
         <v>27</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6">
         <v>5</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="6">
         <v>5</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="6">
         <v>4</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="6">
         <v>85</v>
       </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9">
+      <c r="M3" s="6"/>
+      <c r="N3" s="6">
         <v>13</v>
       </c>
     </row>
@@ -4954,17 +4930,6 @@
         <v>7347</v>
       </c>
     </row>
-    <row r="64" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B64" s="6">
-        <v>3135</v>
-      </c>
-      <c r="N64" s="6">
-        <v>219</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
